--- a/final_file.xlsx
+++ b/final_file.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="13q" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="23" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ef" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="k1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="23" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -199,9 +199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,9 +239,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,27 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,27 +307,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,101 +487,134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" ht="21.5" customHeight="1" thickBot="1">
-      <c r="A16" s="6" t="n">
-        <v>111</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>l3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>l5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>l6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>l7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>l8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>l9</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>l3</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>l5</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>l6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -667,135 +664,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ef</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>l3</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>l5</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>l6</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>l1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>l3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>l5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>l6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>l7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>l8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>l9</t>
-        </is>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="21.5" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="n">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/final_file.xlsx
+++ b/final_file.xlsx
@@ -2,24 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,45 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="16"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -73,58 +42,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -487,279 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>l1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>l3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>l5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>l6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>l7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>l8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>l9</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ef</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>l3</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>l5</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>l6</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" ht="21.5" customHeight="1" thickBot="1">
-      <c r="A16" s="6" t="n">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/final_file.xlsx
+++ b/final_file.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="23" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +27,45 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,15 +73,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +487,279 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>l3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>l5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>l6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>l7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>l8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>l9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>l3</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>l5</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>l6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="21.5" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/final_file.xlsx
+++ b/final_file.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="я" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,13 +35,6 @@
       <i val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="16"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,7 +58,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -73,55 +66,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -670,96 +623,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" ht="21.5" customHeight="1" thickBot="1">
-      <c r="A16" s="6" t="n">
-        <v>111</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>